--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.88937866666667</v>
+        <v>68.76957566666668</v>
       </c>
       <c r="H2">
-        <v>233.668136</v>
+        <v>206.308727</v>
       </c>
       <c r="I2">
-        <v>0.117745379143944</v>
+        <v>0.08013720535972996</v>
       </c>
       <c r="J2">
-        <v>0.117745379143944</v>
+        <v>0.08013720535972994</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>12751.42481789978</v>
+        <v>10967.62206518989</v>
       </c>
       <c r="R2">
-        <v>114762.823361098</v>
+        <v>98708.59858670905</v>
       </c>
       <c r="S2">
-        <v>0.03242711347459926</v>
+        <v>0.02390721294954317</v>
       </c>
       <c r="T2">
-        <v>0.03242711347459924</v>
+        <v>0.02390721294954316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.88937866666667</v>
+        <v>68.76957566666668</v>
       </c>
       <c r="H3">
-        <v>233.668136</v>
+        <v>206.308727</v>
       </c>
       <c r="I3">
-        <v>0.117745379143944</v>
+        <v>0.08013720535972996</v>
       </c>
       <c r="J3">
-        <v>0.117745379143944</v>
+        <v>0.08013720535972994</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>13440.47411498386</v>
+        <v>11866.77461636777</v>
       </c>
       <c r="R3">
-        <v>120964.2670348548</v>
+        <v>106800.97154731</v>
       </c>
       <c r="S3">
-        <v>0.03417937881476527</v>
+        <v>0.02586718489126073</v>
       </c>
       <c r="T3">
-        <v>0.03417937881476526</v>
+        <v>0.02586718489126072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.88937866666667</v>
+        <v>68.76957566666668</v>
       </c>
       <c r="H4">
-        <v>233.668136</v>
+        <v>206.308727</v>
       </c>
       <c r="I4">
-        <v>0.117745379143944</v>
+        <v>0.08013720535972996</v>
       </c>
       <c r="J4">
-        <v>0.117745379143944</v>
+        <v>0.08013720535972994</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>8683.743848610562</v>
+        <v>5115.610953513563</v>
       </c>
       <c r="R4">
-        <v>78153.69463749505</v>
+        <v>46040.49858162207</v>
       </c>
       <c r="S4">
-        <v>0.02208292415824532</v>
+        <v>0.01115100426562217</v>
       </c>
       <c r="T4">
-        <v>0.02208292415824531</v>
+        <v>0.01115100426562217</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>77.88937866666667</v>
+        <v>68.76957566666668</v>
       </c>
       <c r="H5">
-        <v>233.668136</v>
+        <v>206.308727</v>
       </c>
       <c r="I5">
-        <v>0.117745379143944</v>
+        <v>0.08013720535972996</v>
       </c>
       <c r="J5">
-        <v>0.117745379143944</v>
+        <v>0.08013720535972994</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>4652.672445082248</v>
+        <v>4017.148240435319</v>
       </c>
       <c r="R5">
-        <v>41874.05200574023</v>
+        <v>36154.33416391787</v>
       </c>
       <c r="S5">
-        <v>0.01183183365713266</v>
+        <v>0.008756576207962812</v>
       </c>
       <c r="T5">
-        <v>0.01183183365713265</v>
+        <v>0.008756576207962812</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>77.88937866666667</v>
+        <v>68.76957566666668</v>
       </c>
       <c r="H6">
-        <v>233.668136</v>
+        <v>206.308727</v>
       </c>
       <c r="I6">
-        <v>0.117745379143944</v>
+        <v>0.08013720535972996</v>
       </c>
       <c r="J6">
-        <v>0.117745379143944</v>
+        <v>0.08013720535972994</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>6773.103214050311</v>
+        <v>4796.417678675679</v>
       </c>
       <c r="R6">
-        <v>60957.92892645279</v>
+        <v>43167.7591080811</v>
       </c>
       <c r="S6">
-        <v>0.01722412903920151</v>
+        <v>0.01045522704534108</v>
       </c>
       <c r="T6">
-        <v>0.0172241290392015</v>
+        <v>0.01045522704534108</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>665.027435</v>
       </c>
       <c r="I7">
-        <v>0.3351073399036297</v>
+        <v>0.2583188840501616</v>
       </c>
       <c r="J7">
-        <v>0.3351073399036297</v>
+        <v>0.2583188840501616</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>36290.98722832809</v>
+        <v>35353.66475341897</v>
       </c>
       <c r="R7">
-        <v>326618.8850549528</v>
+        <v>318182.9827807707</v>
       </c>
       <c r="S7">
-        <v>0.09228866403276602</v>
+        <v>0.07706388739354429</v>
       </c>
       <c r="T7">
-        <v>0.092288664032766</v>
+        <v>0.07706388739354429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>665.027435</v>
       </c>
       <c r="I8">
-        <v>0.3351073399036297</v>
+        <v>0.2583188840501616</v>
       </c>
       <c r="J8">
-        <v>0.3351073399036297</v>
+        <v>0.2583188840501616</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>38252.04488245506</v>
@@ -948,10 +948,10 @@
         <v>344268.4039420955</v>
       </c>
       <c r="S8">
-        <v>0.09727567058213142</v>
+        <v>0.0833817738544132</v>
       </c>
       <c r="T8">
-        <v>0.09727567058213141</v>
+        <v>0.0833817738544132</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>665.027435</v>
       </c>
       <c r="I9">
-        <v>0.3351073399036297</v>
+        <v>0.2583188840501616</v>
       </c>
       <c r="J9">
-        <v>0.3351073399036297</v>
+        <v>0.2583188840501616</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>24714.22931981838</v>
+        <v>16489.95503167943</v>
       </c>
       <c r="R9">
-        <v>222428.0638783654</v>
+        <v>148409.5952851149</v>
       </c>
       <c r="S9">
-        <v>0.06284875063263831</v>
+        <v>0.03594478950200088</v>
       </c>
       <c r="T9">
-        <v>0.06284875063263831</v>
+        <v>0.03594478950200088</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>665.027435</v>
       </c>
       <c r="I10">
-        <v>0.3351073399036297</v>
+        <v>0.2583188840501616</v>
       </c>
       <c r="J10">
-        <v>0.3351073399036297</v>
+        <v>0.2583188840501616</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>13241.66347630824</v>
+        <v>12949.10704553697</v>
       </c>
       <c r="R10">
-        <v>119174.9712867741</v>
+        <v>116541.9634098327</v>
       </c>
       <c r="S10">
-        <v>0.03367379961617702</v>
+        <v>0.02822645217021543</v>
       </c>
       <c r="T10">
-        <v>0.03367379961617701</v>
+        <v>0.02822645217021544</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>665.027435</v>
       </c>
       <c r="I11">
-        <v>0.3351073399036297</v>
+        <v>0.2583188840501616</v>
       </c>
       <c r="J11">
-        <v>0.3351073399036297</v>
+        <v>0.2583188840501616</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>19276.48131463733</v>
+        <v>15461.04904247865</v>
       </c>
       <c r="R11">
-        <v>173488.3318317359</v>
+        <v>139149.4413823079</v>
       </c>
       <c r="S11">
-        <v>0.04902045503991692</v>
+        <v>0.0337019811299878</v>
       </c>
       <c r="T11">
-        <v>0.04902045503991691</v>
+        <v>0.0337019811299878</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>131.496086</v>
+        <v>242.2070976666666</v>
       </c>
       <c r="H12">
-        <v>394.488258</v>
+        <v>726.6212929999999</v>
       </c>
       <c r="I12">
-        <v>0.1987826423455699</v>
+        <v>0.2822439972492947</v>
       </c>
       <c r="J12">
-        <v>0.1987826423455699</v>
+        <v>0.2822439972492947</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>21527.48530262274</v>
+        <v>38628.06892382991</v>
       </c>
       <c r="R12">
-        <v>193747.3677236046</v>
+        <v>347652.6203144692</v>
       </c>
       <c r="S12">
-        <v>0.05474480057718689</v>
+        <v>0.08420143072970149</v>
       </c>
       <c r="T12">
-        <v>0.05474480057718688</v>
+        <v>0.08420143072970147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>131.496086</v>
+        <v>242.2070976666666</v>
       </c>
       <c r="H13">
-        <v>394.488258</v>
+        <v>726.6212929999999</v>
       </c>
       <c r="I13">
-        <v>0.1987826423455699</v>
+        <v>0.2822439972492947</v>
       </c>
       <c r="J13">
-        <v>0.1987826423455699</v>
+        <v>0.2822439972492947</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>22690.76696154274</v>
+        <v>41794.8927360922</v>
       </c>
       <c r="R13">
-        <v>204216.9026538846</v>
+        <v>376154.0346248298</v>
       </c>
       <c r="S13">
-        <v>0.05770304774528116</v>
+        <v>0.09110447049560791</v>
       </c>
       <c r="T13">
-        <v>0.05770304774528116</v>
+        <v>0.09110447049560789</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>131.496086</v>
+        <v>242.2070976666666</v>
       </c>
       <c r="H14">
-        <v>394.488258</v>
+        <v>726.6212929999999</v>
       </c>
       <c r="I14">
-        <v>0.1987826423455699</v>
+        <v>0.2822439972492947</v>
       </c>
       <c r="J14">
-        <v>0.1987826423455699</v>
+        <v>0.2822439972492947</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>14660.25724515813</v>
+        <v>18017.23029160559</v>
       </c>
       <c r="R14">
-        <v>131942.3152064232</v>
+        <v>162155.0726244503</v>
       </c>
       <c r="S14">
-        <v>0.03728131028841822</v>
+        <v>0.0392739427728372</v>
       </c>
       <c r="T14">
-        <v>0.03728131028841822</v>
+        <v>0.0392739427728372</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>131.496086</v>
+        <v>242.2070976666666</v>
       </c>
       <c r="H15">
-        <v>394.488258</v>
+        <v>726.6212929999999</v>
       </c>
       <c r="I15">
-        <v>0.1987826423455699</v>
+        <v>0.2822439972492947</v>
       </c>
       <c r="J15">
-        <v>0.1987826423455699</v>
+        <v>0.2822439972492947</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>7854.834978035246</v>
+        <v>14148.43419899433</v>
       </c>
       <c r="R15">
-        <v>70693.51480231721</v>
+        <v>127335.907790949</v>
       </c>
       <c r="S15">
-        <v>0.01997499328855018</v>
+        <v>0.03084074444646723</v>
       </c>
       <c r="T15">
-        <v>0.01997499328855017</v>
+        <v>0.03084074444646723</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>131.496086</v>
+        <v>242.2070976666666</v>
       </c>
       <c r="H16">
-        <v>394.488258</v>
+        <v>726.6212929999999</v>
       </c>
       <c r="I16">
-        <v>0.1987826423455699</v>
+        <v>0.2822439972492947</v>
       </c>
       <c r="J16">
-        <v>0.1987826423455699</v>
+        <v>0.2822439972492947</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>11434.63432329048</v>
+        <v>16893.02855059243</v>
       </c>
       <c r="R16">
-        <v>102911.7089096143</v>
+        <v>152037.2569553319</v>
       </c>
       <c r="S16">
-        <v>0.02907849044613347</v>
+        <v>0.03682340880468087</v>
       </c>
       <c r="T16">
-        <v>0.02907849044613346</v>
+        <v>0.03682340880468087</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.353234333333333</v>
+        <v>9.570116333333333</v>
       </c>
       <c r="H17">
-        <v>19.059703</v>
+        <v>28.710349</v>
       </c>
       <c r="I17">
-        <v>0.009604184783268724</v>
+        <v>0.01115205918440143</v>
       </c>
       <c r="J17">
-        <v>0.009604184783268722</v>
+        <v>0.01115205918440143</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>1040.100605997896</v>
+        <v>1526.276962543143</v>
       </c>
       <c r="R17">
-        <v>9360.905453981068</v>
+        <v>13736.49266288829</v>
       </c>
       <c r="S17">
-        <v>0.002644995430498748</v>
+        <v>0.003326977183077202</v>
       </c>
       <c r="T17">
-        <v>0.002644995430498746</v>
+        <v>0.003326977183077202</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.353234333333333</v>
+        <v>9.570116333333333</v>
       </c>
       <c r="H18">
-        <v>19.059703</v>
+        <v>28.710349</v>
       </c>
       <c r="I18">
-        <v>0.009604184783268724</v>
+        <v>0.01115205918440143</v>
       </c>
       <c r="J18">
-        <v>0.009604184783268722</v>
+        <v>0.01115205918440143</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>1096.304567648797</v>
+        <v>1651.404890595151</v>
       </c>
       <c r="R18">
-        <v>9866.741108839171</v>
+        <v>14862.64401535636</v>
       </c>
       <c r="S18">
-        <v>0.002787923163532738</v>
+        <v>0.003599730930798785</v>
       </c>
       <c r="T18">
-        <v>0.002787923163532737</v>
+        <v>0.003599730930798785</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.353234333333333</v>
+        <v>9.570116333333333</v>
       </c>
       <c r="H19">
-        <v>19.059703</v>
+        <v>28.710349</v>
       </c>
       <c r="I19">
-        <v>0.009604184783268724</v>
+        <v>0.01115205918440143</v>
       </c>
       <c r="J19">
-        <v>0.009604184783268722</v>
+        <v>0.01115205918440143</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>708.310433402842</v>
+        <v>711.8989969997591</v>
       </c>
       <c r="R19">
-        <v>6374.793900625578</v>
+        <v>6407.090972997833</v>
       </c>
       <c r="S19">
-        <v>0.001801246772592395</v>
+        <v>0.001551796808704563</v>
       </c>
       <c r="T19">
-        <v>0.001801246772592394</v>
+        <v>0.001551796808704564</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.353234333333333</v>
+        <v>9.570116333333333</v>
       </c>
       <c r="H20">
-        <v>19.059703</v>
+        <v>28.710349</v>
       </c>
       <c r="I20">
-        <v>0.009604184783268724</v>
+        <v>0.01115205918440143</v>
       </c>
       <c r="J20">
-        <v>0.009604184783268722</v>
+        <v>0.01115205918440143</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>379.5064080091411</v>
+        <v>559.0346547368008</v>
       </c>
       <c r="R20">
-        <v>3415.557672082269</v>
+        <v>5031.311892631207</v>
       </c>
       <c r="S20">
-        <v>0.0009650919432607287</v>
+        <v>0.001218583249634946</v>
       </c>
       <c r="T20">
-        <v>0.0009650919432607284</v>
+        <v>0.001218583249634946</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.353234333333333</v>
+        <v>9.570116333333333</v>
       </c>
       <c r="H21">
-        <v>19.059703</v>
+        <v>28.710349</v>
       </c>
       <c r="I21">
-        <v>0.009604184783268724</v>
+        <v>0.01115205918440143</v>
       </c>
       <c r="J21">
-        <v>0.009604184783268722</v>
+        <v>0.01115205918440143</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>552.4644389175268</v>
+        <v>667.4794009297947</v>
       </c>
       <c r="R21">
-        <v>4972.179950257741</v>
+        <v>6007.314608368152</v>
       </c>
       <c r="S21">
-        <v>0.001404927473384116</v>
+        <v>0.001454971012185932</v>
       </c>
       <c r="T21">
-        <v>0.001404927473384116</v>
+        <v>0.001454971012185932</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>224.0923716666667</v>
+        <v>315.9253133333333</v>
       </c>
       <c r="H22">
-        <v>672.277115</v>
+        <v>947.77594</v>
       </c>
       <c r="I22">
-        <v>0.3387604538235878</v>
+        <v>0.3681478541564123</v>
       </c>
       <c r="J22">
-        <v>0.3387604538235878</v>
+        <v>0.3681478541564123</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>36686.60706360521</v>
+        <v>50384.91809607304</v>
       </c>
       <c r="R22">
-        <v>330179.4635724469</v>
+        <v>453464.2628646573</v>
       </c>
       <c r="S22">
-        <v>0.09329473272505247</v>
+        <v>0.1098290002343597</v>
       </c>
       <c r="T22">
-        <v>0.09329473272505245</v>
+        <v>0.1098290002343597</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>224.0923716666667</v>
+        <v>315.9253133333333</v>
       </c>
       <c r="H23">
-        <v>672.277115</v>
+        <v>947.77594</v>
       </c>
       <c r="I23">
-        <v>0.3387604538235878</v>
+        <v>0.3681478541564123</v>
       </c>
       <c r="J23">
-        <v>0.3387604538235878</v>
+        <v>0.3681478541564123</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>38669.04284396538</v>
+        <v>54515.59723305406</v>
       </c>
       <c r="R23">
-        <v>348021.3855956884</v>
+        <v>490640.3750974865</v>
       </c>
       <c r="S23">
-        <v>0.09833610425206846</v>
+        <v>0.1188330509909473</v>
       </c>
       <c r="T23">
-        <v>0.09833610425206843</v>
+        <v>0.1188330509909473</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>224.0923716666667</v>
+        <v>315.9253133333333</v>
       </c>
       <c r="H24">
-        <v>672.277115</v>
+        <v>947.77594</v>
       </c>
       <c r="I24">
-        <v>0.3387604538235878</v>
+        <v>0.3681478541564123</v>
       </c>
       <c r="J24">
-        <v>0.3387604538235878</v>
+        <v>0.3681478541564123</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>24983.64715821974</v>
+        <v>23500.95922088944</v>
       </c>
       <c r="R24">
-        <v>224852.8244239777</v>
+        <v>211508.632988005</v>
       </c>
       <c r="S24">
-        <v>0.06353388526995808</v>
+        <v>0.05122737027888333</v>
       </c>
       <c r="T24">
-        <v>0.06353388526995808</v>
+        <v>0.05122737027888334</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>224.0923716666667</v>
+        <v>315.9253133333333</v>
       </c>
       <c r="H25">
-        <v>672.277115</v>
+        <v>947.77594</v>
       </c>
       <c r="I25">
-        <v>0.3387604538235878</v>
+        <v>0.3681478541564123</v>
       </c>
       <c r="J25">
-        <v>0.3387604538235878</v>
+        <v>0.3681478541564123</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>13386.01514936504</v>
+        <v>18454.65533650416</v>
       </c>
       <c r="R25">
-        <v>120474.1363442853</v>
+        <v>166091.8980285374</v>
       </c>
       <c r="S25">
-        <v>0.03404088863950641</v>
+        <v>0.04022744150170433</v>
       </c>
       <c r="T25">
-        <v>0.03404088863950641</v>
+        <v>0.04022744150170433</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>224.0923716666667</v>
+        <v>315.9253133333333</v>
       </c>
       <c r="H26">
-        <v>672.277115</v>
+        <v>947.77594</v>
       </c>
       <c r="I26">
-        <v>0.3387604538235878</v>
+        <v>0.3681478541564123</v>
       </c>
       <c r="J26">
-        <v>0.3387604538235878</v>
+        <v>0.3681478541564123</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>19486.62049642477</v>
+        <v>22034.59514361435</v>
       </c>
       <c r="R26">
-        <v>175379.5844678229</v>
+        <v>198311.3562925291</v>
       </c>
       <c r="S26">
-        <v>0.04955484293700237</v>
+        <v>0.04803099115051765</v>
       </c>
       <c r="T26">
-        <v>0.04955484293700236</v>
+        <v>0.04803099115051765</v>
       </c>
     </row>
   </sheetData>
